--- a/output.xlsx
+++ b/output.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[88.81289546]</t>
+          <t>[89.88595335]</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[202.93843795]</t>
+          <t>[203.95453221]</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[47.66379552]</t>
+          <t>[47.70233761]</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[98.4480635]</t>
+          <t>[98.62297952]</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[30.27826964]</t>
+          <t>[30.28485655]</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[57.0161265]</t>
+          <t>[57.00185711]</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[59.06607557]</t>
+          <t>[58.91042333]</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[479.87308604]</t>
+          <t>[476.60572615]</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[28.20970791]</t>
+          <t>[28.22289212]</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[45.11014508]</t>
+          <t>[44.99069581]</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[14.32549548]</t>
+          <t>[13.96226587]</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[109.86974276]</t>
+          <t>[110.9957001]</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[25.44921724]</t>
+          <t>[25.3704777]</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[51.54053722]</t>
+          <t>[50.70041969]</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[187.70737916]</t>
+          <t>[187.51951799]</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[299.59245806]</t>
+          <t>[299.76194071]</t>
         </is>
       </c>
     </row>
